--- a/example_data/EMA/label_corrected/aldurazyme-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/aldurazyme-epar-product-information_en.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
